--- a/trunk/documentation/template/2 요구정의/3 요구사항 정의/1 요구사항 도출/non-functional-requirement-checklist.xlsx
+++ b/trunk/documentation/template/2 요구정의/3 요구사항 정의/1 요구사항 도출/non-functional-requirement-checklist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="165" windowWidth="18705" windowHeight="9945" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="3795" yWindow="2790" windowWidth="18705" windowHeight="8400" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="시스템 관련" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="227">
   <si>
     <t>분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -870,27 +870,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ERP 연계 유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAI 연계 유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email 연계 유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMS 연계 유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSO 연계 유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>이행 전 검증</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ERP 연계 유무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EAI 연계 유무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Email 연계 유무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMS 연계 유무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SSO 연계 유무</t>
+    <t>시스템 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부, 내부 시스템 식별 필요 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clustering 된 서버들 각각의 식별 필요 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고려사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부, 내부 시스템의 IP, 도메인 목록으로 판단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clustering 된 시스템의 IP, 도메인 목록으로 판단</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1004,7 +1028,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1053,53 +1077,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1118,6 +1097,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1469,10 +1496,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="24" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1489,8 +1516,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="6" t="s">
         <v>43</v>
       </c>
@@ -1501,8 +1528,8 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="6" t="s">
         <v>42</v>
       </c>
@@ -1513,8 +1540,8 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="6" t="s">
         <v>45</v>
       </c>
@@ -1525,8 +1552,8 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="6" t="s">
         <v>46</v>
       </c>
@@ -1537,8 +1564,8 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="6" t="s">
         <v>47</v>
       </c>
@@ -1549,8 +1576,8 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="6" t="s">
         <v>48</v>
       </c>
@@ -1561,8 +1588,8 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="6" t="s">
         <v>49</v>
       </c>
@@ -1573,10 +1600,10 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1589,8 +1616,8 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="6" t="s">
         <v>11</v>
       </c>
@@ -1601,7 +1628,7 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
@@ -1615,8 +1642,8 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="19" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="27" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -1629,8 +1656,8 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1641,8 +1668,8 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="6" t="s">
         <v>17</v>
       </c>
@@ -1653,8 +1680,8 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="6" t="s">
         <v>18</v>
       </c>
@@ -1665,7 +1692,7 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="6" t="s">
         <v>19</v>
       </c>
@@ -1679,10 +1706,10 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="27" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -1695,8 +1722,8 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="6" t="s">
         <v>29</v>
       </c>
@@ -1707,8 +1734,8 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="19" t="s">
+      <c r="A20" s="25"/>
+      <c r="B20" s="27" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1721,8 +1748,8 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="6" t="s">
         <v>31</v>
       </c>
@@ -1733,8 +1760,8 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="19" t="s">
+      <c r="A22" s="25"/>
+      <c r="B22" s="27" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -1747,8 +1774,8 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="6" t="s">
         <v>38</v>
       </c>
@@ -1759,8 +1786,8 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="19" t="s">
+      <c r="A24" s="25"/>
+      <c r="B24" s="27" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -1773,8 +1800,8 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="6" t="s">
         <v>39</v>
       </c>
@@ -1785,8 +1812,8 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="19" t="s">
+      <c r="A26" s="25"/>
+      <c r="B26" s="27" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -1799,8 +1826,8 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="6" t="s">
         <v>22</v>
       </c>
@@ -1811,8 +1838,8 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="6" t="s">
         <v>24</v>
       </c>
@@ -1823,8 +1850,8 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="6" t="s">
         <v>25</v>
       </c>
@@ -1835,8 +1862,8 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="6" t="s">
         <v>26</v>
       </c>
@@ -1847,8 +1874,8 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="6" t="s">
         <v>27</v>
       </c>
@@ -1859,8 +1886,8 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="19" t="s">
+      <c r="A32" s="25"/>
+      <c r="B32" s="27" t="s">
         <v>28</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -1873,8 +1900,8 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="6" t="s">
         <v>71</v>
       </c>
@@ -1885,8 +1912,8 @@
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="6" t="s">
         <v>72</v>
       </c>
@@ -1897,8 +1924,8 @@
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="6" t="s">
         <v>73</v>
       </c>
@@ -1909,10 +1936,10 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="23" t="s">
         <v>197</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -1929,8 +1956,8 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="6" t="s">
         <v>201</v>
       </c>
@@ -1945,8 +1972,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="6" t="s">
         <v>202</v>
       </c>
@@ -1961,8 +1988,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="6" t="s">
         <v>203</v>
       </c>
@@ -1977,8 +2004,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="31"/>
-      <c r="B40" s="31"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="6" t="s">
         <v>204</v>
       </c>
@@ -1993,8 +2020,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="6" t="s">
         <v>205</v>
       </c>
@@ -2009,8 +2036,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="6" t="s">
         <v>206</v>
       </c>
@@ -2052,10 +2079,10 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7:B10"/>
+      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2095,10 +2122,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="27" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2111,8 +2138,8 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="6" t="s">
         <v>63</v>
       </c>
@@ -2123,7 +2150,7 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="6" t="s">
         <v>66</v>
       </c>
@@ -2137,7 +2164,7 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="27" t="s">
         <v>65</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -2153,7 +2180,7 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="6" t="s">
         <v>66</v>
       </c>
@@ -2167,10 +2194,10 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="27" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -2183,8 +2210,8 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="6" t="s">
         <v>99</v>
       </c>
@@ -2195,8 +2222,8 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="7" t="s">
         <v>100</v>
       </c>
@@ -2207,8 +2234,8 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="7" t="s">
         <v>101</v>
       </c>
@@ -2219,8 +2246,8 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="19" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="27" t="s">
         <v>102</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -2233,8 +2260,8 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="7" t="s">
         <v>104</v>
       </c>
@@ -2245,7 +2272,7 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="6" t="s">
         <v>138</v>
       </c>
@@ -2259,8 +2286,8 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="25"/>
+      <c r="B14" s="27" t="s">
         <v>116</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -2273,8 +2300,8 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="6" t="s">
         <v>110</v>
       </c>
@@ -2285,8 +2312,8 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="6" t="s">
         <v>111</v>
       </c>
@@ -2297,8 +2324,8 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="19" t="s">
+      <c r="A17" s="25"/>
+      <c r="B17" s="27" t="s">
         <v>117</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -2311,8 +2338,8 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="6" t="s">
         <v>119</v>
       </c>
@@ -2323,8 +2350,8 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="19" t="s">
+      <c r="A19" s="25"/>
+      <c r="B19" s="27" t="s">
         <v>113</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -2337,8 +2364,8 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="6" t="s">
         <v>114</v>
       </c>
@@ -2349,8 +2376,8 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="6" t="s">
         <v>115</v>
       </c>
@@ -2361,7 +2388,7 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="6" t="s">
         <v>141</v>
       </c>
@@ -2375,10 +2402,10 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="27" t="s">
         <v>121</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -2391,8 +2418,8 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="7" t="s">
         <v>123</v>
       </c>
@@ -2403,8 +2430,8 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="7" t="s">
         <v>104</v>
       </c>
@@ -2415,8 +2442,8 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="7" t="s">
         <v>124</v>
       </c>
@@ -2427,8 +2454,8 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="19" t="s">
+      <c r="A27" s="25"/>
+      <c r="B27" s="27" t="s">
         <v>128</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -2441,8 +2468,8 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="7" t="s">
         <v>126</v>
       </c>
@@ -2453,8 +2480,8 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="7" t="s">
         <v>127</v>
       </c>
@@ -2465,8 +2492,8 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="7" t="s">
         <v>133</v>
       </c>
@@ -2477,8 +2504,8 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="7" t="s">
         <v>135</v>
       </c>
@@ -2489,8 +2516,8 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="18"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="7" t="s">
         <v>134</v>
       </c>
@@ -2501,7 +2528,7 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="6" t="s">
         <v>129</v>
       </c>
@@ -2515,7 +2542,7 @@
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="6" t="s">
         <v>131</v>
       </c>
@@ -2529,7 +2556,7 @@
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="6" t="s">
         <v>136</v>
       </c>
@@ -2543,10 +2570,10 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="27" t="s">
         <v>143</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -2559,8 +2586,8 @@
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="7" t="s">
         <v>145</v>
       </c>
@@ -2571,8 +2598,8 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="7" t="s">
         <v>146</v>
       </c>
@@ -2583,10 +2610,10 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="27" t="s">
         <v>151</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -2599,8 +2626,8 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="24"/>
-      <c r="B40" s="17"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="7" t="s">
         <v>149</v>
       </c>
@@ -2611,8 +2638,8 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="24"/>
-      <c r="B41" s="18"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="7" t="s">
         <v>150</v>
       </c>
@@ -2623,8 +2650,8 @@
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
-      <c r="B42" s="19" t="s">
+      <c r="A42" s="29"/>
+      <c r="B42" s="27" t="s">
         <v>152</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -2637,8 +2664,8 @@
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="24"/>
-      <c r="B43" s="17"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="25"/>
       <c r="C43" s="7" t="s">
         <v>153</v>
       </c>
@@ -2649,8 +2676,8 @@
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="24"/>
-      <c r="B44" s="17"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="25"/>
       <c r="C44" s="7" t="s">
         <v>154</v>
       </c>
@@ -2661,8 +2688,8 @@
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="24"/>
-      <c r="B45" s="18"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="7" t="s">
         <v>155</v>
       </c>
@@ -2673,7 +2700,7 @@
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="25"/>
+      <c r="A46" s="30"/>
       <c r="B46" s="3" t="s">
         <v>207</v>
       </c>
@@ -2762,7 +2789,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2817,10 +2844,10 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="B3" s="26" t="s">
+      <c r="A3" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2833,8 +2860,8 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="2" t="s">
         <v>51</v>
       </c>
@@ -2845,7 +2872,7 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="31" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2861,7 +2888,7 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="2" t="s">
         <v>58</v>
       </c>
@@ -2891,254 +2918,254 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B17" sqref="A2:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.625" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.375" style="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.625" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.125" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="34"/>
+    <col min="1" max="1" width="9.625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.625" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.125" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="32" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="32" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="32" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="32" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="32" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="32" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="32" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="32" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="32" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="32" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="32" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="32" t="s">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="32" t="s">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="32" t="s">
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="23" t="s">
+      <c r="A17" s="25"/>
+      <c r="B17" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="32" t="s">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3154,22 +3181,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.625" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="9.625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3194,12 +3222,15 @@
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="I1" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="16" t="s">
         <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -3210,12 +3241,13 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="23" t="s">
         <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -3226,10 +3258,11 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="2" t="s">
         <v>107</v>
       </c>
@@ -3238,10 +3271,11 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="2" t="s">
         <v>108</v>
       </c>
@@ -3250,10 +3284,11 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="2" t="s">
         <v>161</v>
       </c>
@@ -3262,12 +3297,13 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="16" t="s">
         <v>157</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -3278,10 +3314,11 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
-      <c r="B8" s="28" t="s">
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="36"/>
+      <c r="B8" s="16" t="s">
         <v>158</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -3292,12 +3329,47 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>226</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3312,262 +3384,262 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.875" style="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.625" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.125" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="34"/>
+    <col min="1" max="1" width="5.25" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.875" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.625" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.125" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="32" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="35"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="32" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="35"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="20" t="s">
+      <c r="A5" s="34"/>
+      <c r="B5" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="35"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="32" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="35"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="32" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="35"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="32" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="35"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="32" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="35"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="20" t="s">
+      <c r="A10" s="34"/>
+      <c r="B10" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="35"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="32" t="s">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="35"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="32" t="s">
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="35"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="32" t="s">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="35"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="32" t="s">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="35"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="32" t="s">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="35"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="35"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="20"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="32" t="s">
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="35"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="32" t="s">
+      <c r="A18" s="35"/>
+      <c r="B18" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="35"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3592,7 +3664,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3631,10 +3703,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="17" t="s">
         <v>210</v>
       </c>
       <c r="C2" s="6"/>
@@ -3645,8 +3717,8 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="32" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="17" t="s">
         <v>212</v>
       </c>
       <c r="C3" s="6"/>
@@ -3657,8 +3729,8 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="17" t="s">
         <v>211</v>
       </c>
       <c r="C4" s="6"/>
@@ -3669,8 +3741,8 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="32" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="17" t="s">
         <v>213</v>
       </c>
       <c r="C5" s="6"/>
@@ -3681,7 +3753,7 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="27" t="s">
         <v>188</v>
       </c>
       <c r="B6" s="14" t="s">
@@ -3695,7 +3767,7 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="6" t="s">
         <v>189</v>
       </c>
@@ -3721,8 +3793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3979,7 +4051,7 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3991,7 +4063,7 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -4003,7 +4075,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -4015,7 +4087,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4027,7 +4099,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>

--- a/trunk/documentation/template/2 요구정의/3 요구사항 정의/1 요구사항 도출/non-functional-requirement-checklist.xlsx
+++ b/trunk/documentation/template/2 요구정의/3 요구사항 정의/1 요구사항 도출/non-functional-requirement-checklist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="2790" windowWidth="18705" windowHeight="8400" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="3795" yWindow="2790" windowWidth="18705" windowHeight="8400" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="시스템 관련" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="연계 관련" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'UI 관련'!$A$1:$H$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'업무 범위 관련'!$A$1:$H$7</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="255">
   <si>
     <t>분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -915,6 +916,118 @@
   </si>
   <si>
     <t>Clustering 된 시스템의 IP, 도메인 목록으로 판단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drop-down List형 기준 정보 로컬 PC(Browser) 캐싱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소스 보기시 소스 내용 암호화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주요 정보 렌더링 시 마스킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zero Install</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발 생산성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전용 디버깅 툴, 디버깅 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-Screen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상용 Chart 툴 간의 연계 사례</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 압축(바이너리) 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request 데이터 암호화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response 데이터 암호화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 편의성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 정의 레이아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 정의 컬럼 배치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 정의 메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상용 기보드 보안 제품 간의 연계 사례</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상용 웹 구간 암호화 제품 간의 연계 사례</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 업로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대용량 조회 시, 부분 패치, 부분 렌더링 (비동기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대용량 조회 시, 부분 패치, 부분 렌더링 (이벤트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 업로드 UI 제공 여부 (복수 선택, 프로그레스 바, 업로드 중 취소, 파일 순서 조정)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1028,7 +1141,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1098,6 +1211,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1128,6 +1244,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1138,13 +1263,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1496,10 +1615,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1516,8 +1635,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="6" t="s">
         <v>43</v>
       </c>
@@ -1528,8 +1647,8 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="6" t="s">
         <v>42</v>
       </c>
@@ -1540,8 +1659,8 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="6" t="s">
         <v>45</v>
       </c>
@@ -1552,8 +1671,8 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="6" t="s">
         <v>46</v>
       </c>
@@ -1564,8 +1683,8 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="6" t="s">
         <v>47</v>
       </c>
@@ -1576,8 +1695,8 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="6" t="s">
         <v>48</v>
       </c>
@@ -1588,8 +1707,8 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="6" t="s">
         <v>49</v>
       </c>
@@ -1600,10 +1719,10 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1616,8 +1735,8 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="6" t="s">
         <v>11</v>
       </c>
@@ -1628,7 +1747,7 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
@@ -1642,8 +1761,8 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="27" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -1656,8 +1775,8 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1668,8 +1787,8 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="6" t="s">
         <v>17</v>
       </c>
@@ -1680,8 +1799,8 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="6" t="s">
         <v>18</v>
       </c>
@@ -1692,7 +1811,7 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="6" t="s">
         <v>19</v>
       </c>
@@ -1706,10 +1825,10 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="28" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -1722,8 +1841,8 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="6" t="s">
         <v>29</v>
       </c>
@@ -1734,8 +1853,8 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="27" t="s">
+      <c r="A20" s="26"/>
+      <c r="B20" s="28" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1748,8 +1867,8 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="6" t="s">
         <v>31</v>
       </c>
@@ -1760,8 +1879,8 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="27" t="s">
+      <c r="A22" s="26"/>
+      <c r="B22" s="28" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -1774,8 +1893,8 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="6" t="s">
         <v>38</v>
       </c>
@@ -1786,8 +1905,8 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="27" t="s">
+      <c r="A24" s="26"/>
+      <c r="B24" s="28" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -1800,8 +1919,8 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="6" t="s">
         <v>39</v>
       </c>
@@ -1812,8 +1931,8 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
-      <c r="B26" s="27" t="s">
+      <c r="A26" s="26"/>
+      <c r="B26" s="28" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -1826,8 +1945,8 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="6" t="s">
         <v>22</v>
       </c>
@@ -1838,8 +1957,8 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="6" t="s">
         <v>24</v>
       </c>
@@ -1850,8 +1969,8 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="6" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1981,8 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="6" t="s">
         <v>26</v>
       </c>
@@ -1874,8 +1993,8 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
-      <c r="B31" s="26"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="6" t="s">
         <v>27</v>
       </c>
@@ -1886,8 +2005,8 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
-      <c r="B32" s="27" t="s">
+      <c r="A32" s="26"/>
+      <c r="B32" s="28" t="s">
         <v>28</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -1900,8 +2019,8 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="6" t="s">
         <v>71</v>
       </c>
@@ -1912,8 +2031,8 @@
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="6" t="s">
         <v>72</v>
       </c>
@@ -1924,8 +2043,8 @@
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
       <c r="C35" s="6" t="s">
         <v>73</v>
       </c>
@@ -1936,10 +2055,10 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="24" t="s">
         <v>197</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -1956,8 +2075,8 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="6" t="s">
         <v>201</v>
       </c>
@@ -1972,8 +2091,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="6" t="s">
         <v>202</v>
       </c>
@@ -1988,8 +2107,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="6" t="s">
         <v>203</v>
       </c>
@@ -2004,8 +2123,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
       <c r="C40" s="6" t="s">
         <v>204</v>
       </c>
@@ -2020,8 +2139,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="6" t="s">
         <v>205</v>
       </c>
@@ -2036,8 +2155,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
       <c r="C42" s="6" t="s">
         <v>206</v>
       </c>
@@ -2122,10 +2241,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2138,8 +2257,8 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="6" t="s">
         <v>63</v>
       </c>
@@ -2150,7 +2269,7 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="6" t="s">
         <v>66</v>
       </c>
@@ -2164,7 +2283,7 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>65</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -2180,7 +2299,7 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="6" t="s">
         <v>66</v>
       </c>
@@ -2194,10 +2313,10 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="28" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -2210,8 +2329,8 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="6" t="s">
         <v>99</v>
       </c>
@@ -2222,8 +2341,8 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="7" t="s">
         <v>100</v>
       </c>
@@ -2234,8 +2353,8 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="7" t="s">
         <v>101</v>
       </c>
@@ -2246,8 +2365,8 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="27" t="s">
+      <c r="A11" s="26"/>
+      <c r="B11" s="28" t="s">
         <v>102</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -2260,8 +2379,8 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="7" t="s">
         <v>104</v>
       </c>
@@ -2272,7 +2391,7 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="6" t="s">
         <v>138</v>
       </c>
@@ -2286,8 +2405,8 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="26"/>
+      <c r="B14" s="28" t="s">
         <v>116</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -2300,8 +2419,8 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="6" t="s">
         <v>110</v>
       </c>
@@ -2312,8 +2431,8 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="6" t="s">
         <v>111</v>
       </c>
@@ -2324,8 +2443,8 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="26"/>
+      <c r="B17" s="28" t="s">
         <v>117</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -2338,8 +2457,8 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="6" t="s">
         <v>119</v>
       </c>
@@ -2350,8 +2469,8 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
-      <c r="B19" s="27" t="s">
+      <c r="A19" s="26"/>
+      <c r="B19" s="28" t="s">
         <v>113</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -2364,8 +2483,8 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="6" t="s">
         <v>114</v>
       </c>
@@ -2376,8 +2495,8 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="6" t="s">
         <v>115</v>
       </c>
@@ -2388,7 +2507,7 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="6" t="s">
         <v>141</v>
       </c>
@@ -2402,10 +2521,10 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="28" t="s">
         <v>121</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -2418,8 +2537,8 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="7" t="s">
         <v>123</v>
       </c>
@@ -2430,8 +2549,8 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="7" t="s">
         <v>104</v>
       </c>
@@ -2442,8 +2561,8 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
-      <c r="B26" s="26"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="7" t="s">
         <v>124</v>
       </c>
@@ -2454,8 +2573,8 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="25"/>
-      <c r="B27" s="27" t="s">
+      <c r="A27" s="26"/>
+      <c r="B27" s="28" t="s">
         <v>128</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -2468,8 +2587,8 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="7" t="s">
         <v>126</v>
       </c>
@@ -2480,8 +2599,8 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="7" t="s">
         <v>127</v>
       </c>
@@ -2492,8 +2611,8 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="7" t="s">
         <v>133</v>
       </c>
@@ -2504,8 +2623,8 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="7" t="s">
         <v>135</v>
       </c>
@@ -2516,8 +2635,8 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
-      <c r="B32" s="26"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="7" t="s">
         <v>134</v>
       </c>
@@ -2528,7 +2647,7 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="25"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="6" t="s">
         <v>129</v>
       </c>
@@ -2542,7 +2661,7 @@
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="25"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="6" t="s">
         <v>131</v>
       </c>
@@ -2556,7 +2675,7 @@
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="26"/>
+      <c r="A35" s="27"/>
       <c r="B35" s="6" t="s">
         <v>136</v>
       </c>
@@ -2570,10 +2689,10 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="28" t="s">
         <v>143</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -2586,8 +2705,8 @@
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="7" t="s">
         <v>145</v>
       </c>
@@ -2598,8 +2717,8 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
       <c r="C38" s="7" t="s">
         <v>146</v>
       </c>
@@ -2610,10 +2729,10 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="28" t="s">
         <v>151</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -2626,8 +2745,8 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="29"/>
-      <c r="B40" s="25"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="26"/>
       <c r="C40" s="7" t="s">
         <v>149</v>
       </c>
@@ -2638,8 +2757,8 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="29"/>
-      <c r="B41" s="26"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="27"/>
       <c r="C41" s="7" t="s">
         <v>150</v>
       </c>
@@ -2650,8 +2769,8 @@
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="29"/>
-      <c r="B42" s="27" t="s">
+      <c r="A42" s="30"/>
+      <c r="B42" s="28" t="s">
         <v>152</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -2664,8 +2783,8 @@
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="29"/>
-      <c r="B43" s="25"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="26"/>
       <c r="C43" s="7" t="s">
         <v>153</v>
       </c>
@@ -2676,8 +2795,8 @@
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="29"/>
-      <c r="B44" s="25"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="26"/>
       <c r="C44" s="7" t="s">
         <v>154</v>
       </c>
@@ -2688,8 +2807,8 @@
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="29"/>
-      <c r="B45" s="26"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="27"/>
       <c r="C45" s="7" t="s">
         <v>155</v>
       </c>
@@ -2700,7 +2819,7 @@
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="30"/>
+      <c r="A46" s="31"/>
       <c r="B46" s="3" t="s">
         <v>207</v>
       </c>
@@ -2761,11 +2880,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B12"/>
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="A23:A35"/>
@@ -2778,6 +2892,11 @@
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="A39:A46"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2844,10 +2963,10 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2860,8 +2979,8 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="2" t="s">
         <v>51</v>
       </c>
@@ -2872,7 +2991,7 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2888,7 +3007,7 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="2" t="s">
         <v>58</v>
       </c>
@@ -2958,10 +3077,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>75</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -2974,8 +3093,8 @@
       <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="17" t="s">
         <v>79</v>
       </c>
@@ -2986,8 +3105,8 @@
       <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="17" t="s">
         <v>80</v>
       </c>
@@ -2998,8 +3117,8 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="17" t="s">
         <v>81</v>
       </c>
@@ -3010,8 +3129,8 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="17" t="s">
         <v>82</v>
       </c>
@@ -3022,8 +3141,8 @@
       <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="17" t="s">
         <v>83</v>
       </c>
@@ -3034,8 +3153,8 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="17" t="s">
         <v>84</v>
       </c>
@@ -3046,8 +3165,8 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="17" t="s">
         <v>85</v>
       </c>
@@ -3058,8 +3177,8 @@
       <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="17" t="s">
         <v>86</v>
       </c>
@@ -3070,8 +3189,8 @@
       <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="17" t="s">
         <v>87</v>
       </c>
@@ -3082,8 +3201,8 @@
       <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="17" t="s">
         <v>88</v>
       </c>
@@ -3094,8 +3213,8 @@
       <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="17" t="s">
         <v>89</v>
       </c>
@@ -3106,8 +3225,8 @@
       <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="17" t="s">
         <v>90</v>
       </c>
@@ -3118,8 +3237,8 @@
       <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="17" t="s">
         <v>91</v>
       </c>
@@ -3130,8 +3249,8 @@
       <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="17" t="s">
         <v>92</v>
       </c>
@@ -3142,8 +3261,8 @@
       <c r="H16" s="17"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="26"/>
+      <c r="B17" s="28" t="s">
         <v>76</v>
       </c>
       <c r="C17" s="17" t="s">
@@ -3156,8 +3275,8 @@
       <c r="H17" s="17"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="17" t="s">
         <v>93</v>
       </c>
@@ -3183,7 +3302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -3244,10 +3363,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -3261,8 +3380,8 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="2" t="s">
         <v>107</v>
       </c>
@@ -3274,8 +3393,8 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="2" t="s">
         <v>108</v>
       </c>
@@ -3287,8 +3406,8 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="2" t="s">
         <v>161</v>
       </c>
@@ -3300,7 +3419,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="34" t="s">
         <v>156</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -3317,7 +3436,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="16" t="s">
         <v>158</v>
       </c>
@@ -3332,10 +3451,10 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="B9" s="37"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="2" t="s">
         <v>222</v>
       </c>
@@ -3349,8 +3468,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="2" t="s">
         <v>223</v>
       </c>
@@ -3381,17 +3500,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.875" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.875" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.5" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="9.625" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="7.125" style="19" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="19"/>
@@ -3424,10 +3543,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="37" t="s">
         <v>172</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -3440,8 +3559,8 @@
       <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="17" t="s">
         <v>175</v>
       </c>
@@ -3452,8 +3571,8 @@
       <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="17" t="s">
         <v>176</v>
       </c>
@@ -3464,8 +3583,8 @@
       <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
-      <c r="B5" s="33" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="37" t="s">
         <v>173</v>
       </c>
       <c r="C5" s="17" t="s">
@@ -3478,8 +3597,8 @@
       <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="17" t="s">
         <v>178</v>
       </c>
@@ -3490,8 +3609,8 @@
       <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="17" t="s">
         <v>179</v>
       </c>
@@ -3502,8 +3621,8 @@
       <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="17" t="s">
         <v>180</v>
       </c>
@@ -3514,8 +3633,8 @@
       <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="17" t="s">
         <v>181</v>
       </c>
@@ -3526,24 +3645,24 @@
       <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
-      <c r="B10" s="33" t="s">
-        <v>174</v>
-      </c>
+      <c r="A10" s="38"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="17" t="s">
-        <v>182</v>
+        <v>237</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
-      <c r="F10" s="22"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="21"/>
       <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="37" t="s">
+        <v>174</v>
+      </c>
       <c r="C11" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3552,22 +3671,22 @@
       <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="21"/>
       <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3576,38 +3695,34 @@
       <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="17" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="22"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="21"/>
       <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="17" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
+      <c r="F15" s="22"/>
       <c r="G15" s="21"/>
       <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>169</v>
-      </c>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="17" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3616,10 +3731,14 @@
       <c r="H16" s="20"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>169</v>
+      </c>
       <c r="C17" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
@@ -3628,12 +3747,10 @@
       <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="17" t="s">
-        <v>170</v>
-      </c>
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="17" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
@@ -3641,18 +3758,415 @@
       <c r="G18" s="21"/>
       <c r="H18" s="20"/>
     </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="40"/>
+      <c r="B19" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B9"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3664,7 +4178,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3703,7 +4217,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>214</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -3717,7 +4231,7 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="17" t="s">
         <v>212</v>
       </c>
@@ -3729,7 +4243,7 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="17" t="s">
         <v>211</v>
       </c>
@@ -3741,7 +4255,7 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="17" t="s">
         <v>213</v>
       </c>
@@ -3753,7 +4267,7 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="28" t="s">
         <v>188</v>
       </c>
       <c r="B6" s="14" t="s">
@@ -3767,7 +4281,7 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="6" t="s">
         <v>189</v>
       </c>
